--- a/GridSearchResults/Hyperparameters_NTSK-RLS_Alice_59_Site_38_QCELLS_Power.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_Alice_59_Site_38_QCELLS_Power.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.9</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6066664940578097</v>
+        <v>0.606666490182016</v>
       </c>
       <c r="G2" t="n">
-        <v>1.693714466577552</v>
+        <v>1.693714455756965</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4661378853258429</v>
+        <v>0.4661378836489616</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.91</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5444379654539023</v>
+        <v>0.5444379647031458</v>
       </c>
       <c r="G3" t="n">
-        <v>1.519982506493023</v>
+        <v>1.519982504397032</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4470881296533253</v>
+        <v>0.4470881296805422</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.92</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5600510241522122</v>
+        <v>0.5600510251094211</v>
       </c>
       <c r="G4" t="n">
-        <v>1.563571634364541</v>
+        <v>1.563571637036913</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4747365777281282</v>
+        <v>0.4747365785701427</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.93</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6181671924196692</v>
+        <v>0.6181671913588473</v>
       </c>
       <c r="G5" t="n">
-        <v>1.725822551302881</v>
+        <v>1.725822548341238</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5274575753200678</v>
+        <v>0.5274575743913941</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6757847621603923</v>
+        <v>0.6757847624522083</v>
       </c>
       <c r="G6" t="n">
-        <v>1.886681462013721</v>
+        <v>1.886681462828424</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5904330216124435</v>
+        <v>0.5904330219172649</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>0.95</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>0.6903711448194584</v>
+        <v>0.6903711460265074</v>
       </c>
       <c r="G7" t="n">
-        <v>1.927404276882646</v>
+        <v>1.927404280252531</v>
       </c>
       <c r="H7" t="n">
-        <v>0.610790325632014</v>
+        <v>0.6107903267970767</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -676,17 +688,19 @@
       <c r="D8" t="n">
         <v>0.96</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6438332023740125</v>
+        <v>0.6438332028301864</v>
       </c>
       <c r="G8" t="n">
-        <v>1.79747788876553</v>
+        <v>1.797477890039094</v>
       </c>
       <c r="H8" t="n">
-        <v>0.575739653778931</v>
+        <v>0.5757396541367004</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -707,17 +721,19 @@
       <c r="D9" t="n">
         <v>0.97</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5891664480192009</v>
+        <v>0.5891664481288252</v>
       </c>
       <c r="G9" t="n">
-        <v>1.644857176070026</v>
+        <v>1.644857176376079</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5298847890852314</v>
+        <v>0.5298847891860214</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -738,17 +754,19 @@
       <c r="D10" t="n">
         <v>0.98</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F10" t="n">
-        <v>0.4900735524220357</v>
+        <v>0.4900735525211847</v>
       </c>
       <c r="G10" t="n">
-        <v>1.368205881739628</v>
+        <v>1.368205882016436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4377291767402942</v>
+        <v>0.4377291768399727</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -769,17 +787,19 @@
       <c r="D11" t="n">
         <v>0.99</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F11" t="n">
-        <v>0.3508336757120611</v>
+        <v>0.3508336757110992</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9794707268924475</v>
+        <v>0.979470726889762</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2856373854986287</v>
+        <v>0.2856373854968268</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -800,17 +820,19 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F12" t="n">
-        <v>0.3389426223922756</v>
+        <v>0.338942622392419</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9462728344295638</v>
+        <v>0.9462728344299641</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2662458878996766</v>
+        <v>0.2662458878999651</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
